--- a/src/main/java/Kien/Lichsudieutri.xlsx
+++ b/src/main/java/Kien/Lichsudieutri.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t/>
   </si>
@@ -41,16 +41,46 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Chết</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>okkk</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Mất zais</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>hghjgh</t>
+  </si>
+  <si>
+    <t>fhhkl</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>1222</t>
@@ -123,12 +153,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
@@ -137,7 +172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,16 +218,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n" s="3">
         <v>45566.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -200,7 +235,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -213,6 +248,106 @@
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n" s="5">
+        <v>45566.0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n" s="6">
+        <v>45569.0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n" s="7">
+        <v>45566.0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n" s="8">
+        <v>45567.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n" s="9">
+        <v>45566.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Kien/Lichsudieutri.xlsx
+++ b/src/main/java/Kien/Lichsudieutri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\NetBeansProjects\hosobenhnhan\src\main\java\Kien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CC286-3711-4AA8-A1B6-72B1439A58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AECBE12-06B2-4FE5-84D3-6A715BDA4E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch Làm Việc" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>DANH SÁCH LỊCH SỬ ĐIỀU TRỊ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Mã Lịch Sử</t>
   </si>
@@ -53,6 +50,33 @@
   </si>
   <si>
     <t>1222</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>3642</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4808</t>
+  </si>
+  <si>
+    <t>4852</t>
   </si>
 </sst>
 </file>
@@ -62,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -75,6 +99,12 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -132,6 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,63 +492,111 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45566</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
         <v>45566</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>45566</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>